--- a/data_group/random_effects_evapo.xlsx
+++ b/data_group/random_effects_evapo.xlsx
@@ -391,19 +391,19 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>54.9713155441158</v>
+        <v>56.2272226945003</v>
       </c>
       <c r="B2">
         <v>2001</v>
       </c>
       <c r="C2">
-        <v>4.053252711616763</v>
+        <v>4.071462873609798</v>
       </c>
       <c r="D2">
-        <v>47.02694022934695</v>
+        <v>48.24715546222509</v>
       </c>
       <c r="E2">
-        <v>62.91569085888466</v>
+        <v>64.2072899267755</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -413,19 +413,19 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>48.02356907931393</v>
+        <v>49.0856568825505</v>
       </c>
       <c r="B3">
         <v>2002</v>
       </c>
       <c r="C3">
-        <v>4.053252711616763</v>
+        <v>4.071462873609798</v>
       </c>
       <c r="D3">
-        <v>40.07919376454507</v>
+        <v>41.1055896502753</v>
       </c>
       <c r="E3">
-        <v>55.96794439408279</v>
+        <v>57.06572411482571</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -435,19 +435,19 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>19.93469041946865</v>
+        <v>20.38827781095797</v>
       </c>
       <c r="B4">
         <v>2003</v>
       </c>
       <c r="C4">
-        <v>4.053252711616763</v>
+        <v>4.071462873609798</v>
       </c>
       <c r="D4">
-        <v>11.99031510469979</v>
+        <v>12.40821057868277</v>
       </c>
       <c r="E4">
-        <v>27.8790657342375</v>
+        <v>28.36834504323317</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -457,19 +457,19 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>13.85151199750825</v>
+        <v>14.0127340220917</v>
       </c>
       <c r="B5">
         <v>2004</v>
       </c>
       <c r="C5">
-        <v>4.053252711616763</v>
+        <v>4.071462873609798</v>
       </c>
       <c r="D5">
-        <v>5.907136682739398</v>
+        <v>6.032666789816495</v>
       </c>
       <c r="E5">
-        <v>21.79588731227711</v>
+        <v>21.9928012543669</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -479,19 +479,19 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>13.70656503403339</v>
+        <v>13.83524125797502</v>
       </c>
       <c r="B6">
         <v>2005</v>
       </c>
       <c r="C6">
-        <v>4.053252711616763</v>
+        <v>4.071462873609798</v>
       </c>
       <c r="D6">
-        <v>5.762189719264534</v>
+        <v>5.855174025699811</v>
       </c>
       <c r="E6">
-        <v>21.65094034880225</v>
+        <v>21.81530849025022</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -501,19 +501,19 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>30.10584874325988</v>
+        <v>30.31786241545525</v>
       </c>
       <c r="B7">
         <v>2006</v>
       </c>
       <c r="C7">
-        <v>4.053252711616763</v>
+        <v>4.071462873609798</v>
       </c>
       <c r="D7">
-        <v>22.16147342849103</v>
+        <v>22.33779518318005</v>
       </c>
       <c r="E7">
-        <v>38.05022405802874</v>
+        <v>38.29792964773046</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -523,19 +523,19 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>18.69879241367083</v>
+        <v>19.07180518445383</v>
       </c>
       <c r="B8">
         <v>2007</v>
       </c>
       <c r="C8">
-        <v>4.053252711616763</v>
+        <v>4.071462873609798</v>
       </c>
       <c r="D8">
-        <v>10.75441709890197</v>
+        <v>11.09173795217862</v>
       </c>
       <c r="E8">
-        <v>26.64316772843968</v>
+        <v>27.05187241672903</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -545,19 +545,19 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>-30.64625063812666</v>
+        <v>-30.7692386689337</v>
       </c>
       <c r="B9">
         <v>2008</v>
       </c>
       <c r="C9">
-        <v>3.519355920361312</v>
+        <v>3.534999424602531</v>
       </c>
       <c r="D9">
-        <v>-37.54418824203483</v>
+        <v>-37.69783754115466</v>
       </c>
       <c r="E9">
-        <v>-23.74831303421848</v>
+        <v>-23.84063979671274</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -567,19 +567,19 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>-6.665642704646802</v>
+        <v>-6.674774756145586</v>
       </c>
       <c r="B10">
         <v>2009</v>
       </c>
       <c r="C10">
-        <v>3.519355920361312</v>
+        <v>3.534999424602531</v>
       </c>
       <c r="D10">
-        <v>-13.56358030855497</v>
+        <v>-13.60337362836655</v>
       </c>
       <c r="E10">
-        <v>0.2322948992613689</v>
+        <v>0.2538241160753749</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -589,19 +589,19 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>-24.14044361066252</v>
+        <v>-24.53788145280241</v>
       </c>
       <c r="B11">
         <v>2010</v>
       </c>
       <c r="C11">
-        <v>3.519355920361312</v>
+        <v>3.534999424602531</v>
       </c>
       <c r="D11">
-        <v>-31.03838121457069</v>
+        <v>-31.46648032502338</v>
       </c>
       <c r="E11">
-        <v>-17.24250600675435</v>
+        <v>-17.60928258058145</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -611,19 +611,19 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>-30.012800020659</v>
+        <v>-30.60102231777963</v>
       </c>
       <c r="B12">
         <v>2011</v>
       </c>
       <c r="C12">
-        <v>3.563475990876961</v>
+        <v>3.579328755938216</v>
       </c>
       <c r="D12">
-        <v>-36.99721296277784</v>
+        <v>-37.61650667941853</v>
       </c>
       <c r="E12">
-        <v>-23.02838707854016</v>
+        <v>-23.58553795614073</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -633,19 +633,19 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>-53.60816030503219</v>
+        <v>-53.95690834456001</v>
       </c>
       <c r="B13">
         <v>2012</v>
       </c>
       <c r="C13">
-        <v>3.563475990876961</v>
+        <v>3.579328755938216</v>
       </c>
       <c r="D13">
-        <v>-60.59257324715104</v>
+        <v>-60.97239270619892</v>
       </c>
       <c r="E13">
-        <v>-46.62374736291335</v>
+        <v>-46.94142398292111</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -655,19 +655,19 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>-29.30639534364444</v>
+        <v>-29.58205518865419</v>
       </c>
       <c r="B14">
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>3.563475990876961</v>
+        <v>3.579328755938216</v>
       </c>
       <c r="D14">
-        <v>-36.29080828576329</v>
+        <v>-36.59753955029309</v>
       </c>
       <c r="E14">
-        <v>-22.3219824015256</v>
+        <v>-22.56657082701528</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -677,19 +677,19 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>1.69519744187204</v>
+        <v>1.43832801460563</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>3.609298103279223</v>
+        <v>3.625368722348437</v>
       </c>
       <c r="D15">
-        <v>-5.379026840555237</v>
+        <v>-5.667394681197306</v>
       </c>
       <c r="E15">
-        <v>8.769421724299317</v>
+        <v>8.544050710408566</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -699,19 +699,19 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.3186548031890536</v>
+        <v>0.5714191193523588</v>
       </c>
       <c r="B16">
         <v>2015</v>
       </c>
       <c r="C16">
-        <v>3.609298103279223</v>
+        <v>3.625368722348437</v>
       </c>
       <c r="D16">
-        <v>-6.755569479238223</v>
+        <v>-6.534303576450577</v>
       </c>
       <c r="E16">
-        <v>7.39287908561633</v>
+        <v>7.677141815155295</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -721,19 +721,19 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>-16.15698405198735</v>
+        <v>-16.2563765316549</v>
       </c>
       <c r="B17">
         <v>2016</v>
       </c>
       <c r="C17">
-        <v>3.563475990876961</v>
+        <v>3.579328755938216</v>
       </c>
       <c r="D17">
-        <v>-23.14139699410619</v>
+        <v>-23.27186089329381</v>
       </c>
       <c r="E17">
-        <v>-9.172571109868503</v>
+        <v>-9.240892170016002</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -743,19 +743,19 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>5.81599904744641</v>
+        <v>5.496286240080381</v>
       </c>
       <c r="B18">
         <v>2017</v>
       </c>
       <c r="C18">
-        <v>3.519355920361312</v>
+        <v>3.534999424602531</v>
       </c>
       <c r="D18">
-        <v>-1.081938556461761</v>
+        <v>-1.43231263214058</v>
       </c>
       <c r="E18">
-        <v>12.71393665135458</v>
+        <v>12.42488511230134</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -765,19 +765,19 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>25.11803922049133</v>
+        <v>24.92522568012707</v>
       </c>
       <c r="B19">
         <v>2018</v>
       </c>
       <c r="C19">
-        <v>3.519355920361312</v>
+        <v>3.534999424602531</v>
       </c>
       <c r="D19">
-        <v>18.22010161658316</v>
+        <v>17.9966268079061</v>
       </c>
       <c r="E19">
-        <v>32.0159768243995</v>
+        <v>31.85382455234803</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -787,19 +787,19 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>-25.24479836865856</v>
+        <v>-25.50554953317336</v>
       </c>
       <c r="B20">
         <v>2019</v>
       </c>
       <c r="C20">
-        <v>3.519355920361312</v>
+        <v>3.534999424602531</v>
       </c>
       <c r="D20">
-        <v>-32.14273597256673</v>
+        <v>-32.43414840539432</v>
       </c>
       <c r="E20">
-        <v>-18.34686076475039</v>
+        <v>-18.5769506609524</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -809,19 +809,19 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>4.03675289546625</v>
+        <v>3.616603719063066</v>
       </c>
       <c r="B21">
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>3.519355920361312</v>
+        <v>3.534999424602531</v>
       </c>
       <c r="D21">
-        <v>-2.861184708441921</v>
+        <v>-3.311995153157895</v>
       </c>
       <c r="E21">
-        <v>10.93469049937442</v>
+        <v>10.54520259128403</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>-20.49546159757817</v>
+        <v>-21.10285624733705</v>
       </c>
       <c r="B22">
         <v>2021</v>
       </c>
       <c r="C22">
-        <v>3.519355920361312</v>
+        <v>3.534999424602531</v>
       </c>
       <c r="D22">
-        <v>-27.39339920148635</v>
+        <v>-28.03145511955801</v>
       </c>
       <c r="E22">
-        <v>-13.59752399367</v>
+        <v>-14.17425737511609</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -853,19 +853,19 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>-21.14297113255245</v>
+        <v>-20.88713960020072</v>
       </c>
       <c r="B23">
         <v>2001</v>
       </c>
       <c r="C23">
-        <v>3.204170844443206</v>
+        <v>3.283927481797448</v>
       </c>
       <c r="D23">
-        <v>-27.42314598766114</v>
+        <v>-27.32363746452371</v>
       </c>
       <c r="E23">
-        <v>-14.86279627744377</v>
+        <v>-14.45064173587772</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -875,19 +875,19 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>-11.53355866714162</v>
+        <v>-10.66246551819681</v>
       </c>
       <c r="B24">
         <v>2002</v>
       </c>
       <c r="C24">
-        <v>3.204170844443206</v>
+        <v>3.283927481797448</v>
       </c>
       <c r="D24">
-        <v>-17.8137335222503</v>
+        <v>-17.09896338251981</v>
       </c>
       <c r="E24">
-        <v>-5.253383812032931</v>
+        <v>-4.225967653873807</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -897,19 +897,19 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>21.85344786573416</v>
+        <v>22.17357388240353</v>
       </c>
       <c r="B25">
         <v>2003</v>
       </c>
       <c r="C25">
-        <v>3.204170844443206</v>
+        <v>3.283927481797448</v>
       </c>
       <c r="D25">
-        <v>15.57327301062548</v>
+        <v>15.73707601808054</v>
       </c>
       <c r="E25">
-        <v>28.13362272084284</v>
+        <v>28.61007174672653</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -919,19 +919,19 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>1.19008754019334</v>
+        <v>0.988427318947556</v>
       </c>
       <c r="B26">
         <v>2004</v>
       </c>
       <c r="C26">
-        <v>3.204170844443206</v>
+        <v>3.283927481797448</v>
       </c>
       <c r="D26">
-        <v>-5.090087314915346</v>
+        <v>-5.448070545375442</v>
       </c>
       <c r="E26">
-        <v>7.470262395302024</v>
+        <v>7.424925183270554</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -941,19 +941,19 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>-29.23142187333433</v>
+        <v>-27.7891118077367</v>
       </c>
       <c r="B27">
         <v>2005</v>
       </c>
       <c r="C27">
-        <v>3.204170844443206</v>
+        <v>3.283927481797448</v>
       </c>
       <c r="D27">
-        <v>-35.51159672844302</v>
+        <v>-34.2256096720597</v>
       </c>
       <c r="E27">
-        <v>-22.95124701822565</v>
+        <v>-21.3526139434137</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -963,19 +963,19 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>-18.67304380012814</v>
+        <v>-18.27924138029897</v>
       </c>
       <c r="B28">
         <v>2006</v>
       </c>
       <c r="C28">
-        <v>3.204170844443206</v>
+        <v>3.283927481797448</v>
       </c>
       <c r="D28">
-        <v>-24.95321865523683</v>
+        <v>-24.71573924462197</v>
       </c>
       <c r="E28">
-        <v>-12.39286894501946</v>
+        <v>-11.84274351597597</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -985,19 +985,19 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>-35.64295517250891</v>
+        <v>-34.90522120583407</v>
       </c>
       <c r="B29">
         <v>2007</v>
       </c>
       <c r="C29">
-        <v>3.204170844443206</v>
+        <v>3.283927481797448</v>
       </c>
       <c r="D29">
-        <v>-41.92313002761759</v>
+        <v>-41.34171907015707</v>
       </c>
       <c r="E29">
-        <v>-29.36278031740022</v>
+        <v>-28.46872334151107</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1007,19 +1007,19 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>-60.29033167689521</v>
+        <v>-60.61827449500733</v>
       </c>
       <c r="B30">
         <v>2008</v>
       </c>
       <c r="C30">
-        <v>2.779457060390837</v>
+        <v>2.849071123163676</v>
       </c>
       <c r="D30">
-        <v>-65.73806751526125</v>
+        <v>-66.20245389640814</v>
       </c>
       <c r="E30">
-        <v>-54.84259583852916</v>
+        <v>-55.03409509360653</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1029,19 +1029,19 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>-21.19372145867893</v>
+        <v>-21.34437321303772</v>
       </c>
       <c r="B31">
         <v>2009</v>
       </c>
       <c r="C31">
-        <v>2.779457060390837</v>
+        <v>2.849071123163676</v>
       </c>
       <c r="D31">
-        <v>-26.64145729704497</v>
+        <v>-26.92855261443853</v>
       </c>
       <c r="E31">
-        <v>-15.74598562031289</v>
+        <v>-15.76019381163691</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1051,19 +1051,19 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>33.14226567148587</v>
+        <v>33.15101571517761</v>
       </c>
       <c r="B32">
         <v>2010</v>
       </c>
       <c r="C32">
-        <v>2.779457060390837</v>
+        <v>2.849071123163676</v>
       </c>
       <c r="D32">
-        <v>27.69452983311983</v>
+        <v>27.5668363137768</v>
       </c>
       <c r="E32">
-        <v>38.59000150985192</v>
+        <v>38.73519511657841</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1073,19 +1073,19 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>10.76768122618827</v>
+        <v>9.713630058503679</v>
       </c>
       <c r="B33">
         <v>2011</v>
       </c>
       <c r="C33">
-        <v>2.779457060390837</v>
+        <v>2.849071123163676</v>
       </c>
       <c r="D33">
-        <v>5.319945387822233</v>
+        <v>4.129450657102873</v>
       </c>
       <c r="E33">
-        <v>16.21541706455431</v>
+        <v>15.29780945990449</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1095,19 +1095,19 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>-16.70460855633933</v>
+        <v>-16.20246779635067</v>
       </c>
       <c r="B34">
         <v>2012</v>
       </c>
       <c r="C34">
-        <v>2.779457060390837</v>
+        <v>2.849071123163676</v>
       </c>
       <c r="D34">
-        <v>-22.15234439470537</v>
+        <v>-21.78664719775147</v>
       </c>
       <c r="E34">
-        <v>-11.25687271797329</v>
+        <v>-10.61828839494986</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1117,19 +1117,19 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>33.49813659506319</v>
+        <v>32.0208939445862</v>
       </c>
       <c r="B35">
         <v>2013</v>
       </c>
       <c r="C35">
-        <v>2.779457060390837</v>
+        <v>2.849071123163676</v>
       </c>
       <c r="D35">
-        <v>28.05040075669715</v>
+        <v>26.43671454318539</v>
       </c>
       <c r="E35">
-        <v>38.94587243342923</v>
+        <v>37.605073345987</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1139,19 +1139,19 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>9.423072049978954</v>
+        <v>9.169061090785519</v>
       </c>
       <c r="B36">
         <v>2014</v>
       </c>
       <c r="C36">
-        <v>2.779457060390837</v>
+        <v>2.849071123163676</v>
       </c>
       <c r="D36">
-        <v>3.975336211612913</v>
+        <v>3.584881689384713</v>
       </c>
       <c r="E36">
-        <v>14.870807888345</v>
+        <v>14.75324049218633</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1161,19 +1161,19 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>-17.54373511301147</v>
+        <v>-15.77733540565311</v>
       </c>
       <c r="B37">
         <v>2015</v>
       </c>
       <c r="C37">
-        <v>2.779457060390837</v>
+        <v>2.849071123163676</v>
       </c>
       <c r="D37">
-        <v>-22.99147095137751</v>
+        <v>-21.36151480705391</v>
       </c>
       <c r="E37">
-        <v>-12.09599927464543</v>
+        <v>-10.1931560042523</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1183,19 +1183,19 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>8.284150565662435</v>
+        <v>8.675517331292037</v>
       </c>
       <c r="B38">
         <v>2016</v>
       </c>
       <c r="C38">
-        <v>2.779457060390837</v>
+        <v>2.849071123163676</v>
       </c>
       <c r="D38">
-        <v>2.836414727296394</v>
+        <v>3.091337929891231</v>
       </c>
       <c r="E38">
-        <v>13.73188640402848</v>
+        <v>14.25969673269284</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1205,19 +1205,19 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>-12.7695760574345</v>
+        <v>-12.50574484166153</v>
       </c>
       <c r="B39">
         <v>2017</v>
       </c>
       <c r="C39">
-        <v>2.779457060390837</v>
+        <v>2.849071123163676</v>
       </c>
       <c r="D39">
-        <v>-18.21731189580055</v>
+        <v>-18.08992424306234</v>
       </c>
       <c r="E39">
-        <v>-7.321840219068464</v>
+        <v>-6.921565440260728</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1227,19 +1227,19 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>29.92197319700197</v>
+        <v>29.46266305711625</v>
       </c>
       <c r="B40">
         <v>2018</v>
       </c>
       <c r="C40">
-        <v>2.779457060390837</v>
+        <v>2.849071123163676</v>
       </c>
       <c r="D40">
-        <v>24.47423735863593</v>
+        <v>23.87848365571544</v>
       </c>
       <c r="E40">
-        <v>35.36970903536801</v>
+        <v>35.04684245851705</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1249,19 +1249,19 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>33.54206011627812</v>
+        <v>32.68100124182662</v>
       </c>
       <c r="B41">
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>2.779457060390837</v>
+        <v>2.849071123163676</v>
       </c>
       <c r="D41">
-        <v>28.09432427791208</v>
+        <v>27.09682184042581</v>
       </c>
       <c r="E41">
-        <v>38.98979595464417</v>
+        <v>38.26518064322742</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1271,19 +1271,19 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>14.22231397282745</v>
+        <v>14.05892660661793</v>
       </c>
       <c r="B42">
         <v>2020</v>
       </c>
       <c r="C42">
-        <v>2.779457060390837</v>
+        <v>2.849071123163676</v>
       </c>
       <c r="D42">
-        <v>8.774578134461411</v>
+        <v>8.474747205217124</v>
       </c>
       <c r="E42">
-        <v>19.67004981119349</v>
+        <v>19.64310600801873</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1293,19 +1293,19 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>48.88073470449881</v>
+        <v>46.87666501564028</v>
       </c>
       <c r="B43">
         <v>2021</v>
       </c>
       <c r="C43">
-        <v>2.779457060390837</v>
+        <v>2.849071123163676</v>
       </c>
       <c r="D43">
-        <v>43.43299886613276</v>
+        <v>41.29248561423948</v>
       </c>
       <c r="E43">
-        <v>54.32847054286485</v>
+        <v>52.46084441704109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1315,19 +1315,19 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>-103.3037473852465</v>
+        <v>-98.01538921839671</v>
       </c>
       <c r="B44">
         <v>2001</v>
       </c>
       <c r="C44">
-        <v>4.507104006260738</v>
+        <v>4.604030204969772</v>
       </c>
       <c r="D44">
-        <v>-112.1376712375176</v>
+        <v>-107.0392884201375</v>
       </c>
       <c r="E44">
-        <v>-94.46982353297547</v>
+        <v>-88.99149001665596</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1337,19 +1337,19 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>-193.4481438361988</v>
+        <v>-186.6164830843907</v>
       </c>
       <c r="B45">
         <v>2002</v>
       </c>
       <c r="C45">
-        <v>4.507104006260738</v>
+        <v>4.604030204969772</v>
       </c>
       <c r="D45">
-        <v>-202.2820676884698</v>
+        <v>-195.6403822861315</v>
       </c>
       <c r="E45">
-        <v>-184.6142199839277</v>
+        <v>-177.5925838826499</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1359,19 +1359,19 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>13.39290111393788</v>
+        <v>15.16263158721186</v>
       </c>
       <c r="B46">
         <v>2003</v>
       </c>
       <c r="C46">
-        <v>4.507104006260738</v>
+        <v>4.604030204969772</v>
       </c>
       <c r="D46">
-        <v>4.558977261666838</v>
+        <v>6.138732385471107</v>
       </c>
       <c r="E46">
-        <v>22.22682496620893</v>
+        <v>24.18653078895261</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1381,19 +1381,19 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>-11.51165462666278</v>
+        <v>-9.658701280373306</v>
       </c>
       <c r="B47">
         <v>2004</v>
       </c>
       <c r="C47">
-        <v>4.507104006260738</v>
+        <v>4.604030204969772</v>
       </c>
       <c r="D47">
-        <v>-20.34557847893383</v>
+        <v>-18.68260048211406</v>
       </c>
       <c r="E47">
-        <v>-2.677730774391737</v>
+        <v>-0.6348020786325534</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1403,19 +1403,19 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>-16.55762025362786</v>
+        <v>-14.11612657138834</v>
       </c>
       <c r="B48">
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>4.507104006260738</v>
+        <v>4.604030204969772</v>
       </c>
       <c r="D48">
-        <v>-25.39154410589891</v>
+        <v>-23.14002577312909</v>
       </c>
       <c r="E48">
-        <v>-7.723696401356815</v>
+        <v>-5.092227369647588</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1425,19 +1425,19 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>28.71142675143292</v>
+        <v>29.27050532274826</v>
       </c>
       <c r="B49">
         <v>2006</v>
       </c>
       <c r="C49">
-        <v>4.507104006260738</v>
+        <v>4.604030204969772</v>
       </c>
       <c r="D49">
-        <v>19.87750289916188</v>
+        <v>20.24660612100751</v>
       </c>
       <c r="E49">
-        <v>37.54535060370397</v>
+        <v>38.29440452448902</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1447,19 +1447,19 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>-32.96350947020295</v>
+        <v>-31.06846912390655</v>
       </c>
       <c r="B50">
         <v>2007</v>
       </c>
       <c r="C50">
-        <v>4.507104006260738</v>
+        <v>4.604030204969772</v>
       </c>
       <c r="D50">
-        <v>-41.79743332247399</v>
+        <v>-40.0923683256473</v>
       </c>
       <c r="E50">
-        <v>-24.12958561793191</v>
+        <v>-22.04456992216579</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1469,19 +1469,19 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>-27.28412232212688</v>
+        <v>-27.3687956351373</v>
       </c>
       <c r="B51">
         <v>2008</v>
       </c>
       <c r="C51">
-        <v>3.906186022287209</v>
+        <v>3.990566499963733</v>
       </c>
       <c r="D51">
-        <v>-34.94024692580981</v>
+        <v>-35.19030597506621</v>
       </c>
       <c r="E51">
-        <v>-19.62799771844395</v>
+        <v>-19.54728529520838</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1491,19 +1491,19 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>43.68838045198329</v>
+        <v>41.29011384500056</v>
       </c>
       <c r="B52">
         <v>2009</v>
       </c>
       <c r="C52">
-        <v>3.906186022287209</v>
+        <v>3.990566499963733</v>
       </c>
       <c r="D52">
-        <v>36.03225584830036</v>
+        <v>33.46860350507165</v>
       </c>
       <c r="E52">
-        <v>51.34450505566623</v>
+        <v>49.11162418492948</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1513,19 +1513,19 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>1.812552252711089</v>
+        <v>0.8450382509009162</v>
       </c>
       <c r="B53">
         <v>2010</v>
       </c>
       <c r="C53">
-        <v>3.906186022287209</v>
+        <v>3.990566499963733</v>
       </c>
       <c r="D53">
-        <v>-5.843572350971842</v>
+        <v>-6.976472089028</v>
       </c>
       <c r="E53">
-        <v>9.468676856394019</v>
+        <v>8.666548590829832</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1535,19 +1535,19 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>-12.75144261811962</v>
+        <v>-14.33298235843012</v>
       </c>
       <c r="B54">
         <v>2011</v>
       </c>
       <c r="C54">
-        <v>3.906186022287209</v>
+        <v>3.990566499963733</v>
       </c>
       <c r="D54">
-        <v>-20.40756722180256</v>
+        <v>-22.15449269835904</v>
       </c>
       <c r="E54">
-        <v>-5.095318014436693</v>
+        <v>-6.511472018501208</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1557,19 +1557,19 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>12.31049915042976</v>
+        <v>10.6933673209438</v>
       </c>
       <c r="B55">
         <v>2012</v>
       </c>
       <c r="C55">
-        <v>3.906186022287209</v>
+        <v>3.990566499963733</v>
       </c>
       <c r="D55">
-        <v>4.654374546746834</v>
+        <v>2.871856981014886</v>
       </c>
       <c r="E55">
-        <v>19.9666237541127</v>
+        <v>18.51487766087272</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1579,19 +1579,19 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>39.37542592710685</v>
+        <v>36.83618942484198</v>
       </c>
       <c r="B56">
         <v>2013</v>
       </c>
       <c r="C56">
-        <v>3.906186022287209</v>
+        <v>3.990566499963733</v>
       </c>
       <c r="D56">
-        <v>31.71930132342392</v>
+        <v>29.01467908491306</v>
       </c>
       <c r="E56">
-        <v>47.03155053078978</v>
+        <v>44.65769976477089</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1601,19 +1601,19 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>33.89364776013942</v>
+        <v>31.77853146345063</v>
       </c>
       <c r="B57">
         <v>2014</v>
       </c>
       <c r="C57">
-        <v>3.906186022287209</v>
+        <v>3.990566499963733</v>
       </c>
       <c r="D57">
-        <v>26.23752315645649</v>
+        <v>23.95702112352171</v>
       </c>
       <c r="E57">
-        <v>41.54977236382236</v>
+        <v>39.60004180337954</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1623,19 +1623,19 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>29.33032971767962</v>
+        <v>27.90013304773845</v>
       </c>
       <c r="B58">
         <v>2015</v>
       </c>
       <c r="C58">
-        <v>3.906186022287209</v>
+        <v>3.990566499963733</v>
       </c>
       <c r="D58">
-        <v>21.67420511399669</v>
+        <v>20.07862270780954</v>
       </c>
       <c r="E58">
-        <v>36.98645432136255</v>
+        <v>35.72164338766737</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1645,19 +1645,19 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>52.23708278952756</v>
+        <v>51.0207257093448</v>
       </c>
       <c r="B59">
         <v>2016</v>
       </c>
       <c r="C59">
-        <v>3.906186022287209</v>
+        <v>3.990566499963733</v>
       </c>
       <c r="D59">
-        <v>44.58095818584463</v>
+        <v>43.19921536941589</v>
       </c>
       <c r="E59">
-        <v>59.8932073932105</v>
+        <v>58.84223604927372</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1667,19 +1667,19 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>17.14238200701418</v>
+        <v>15.87347338325278</v>
       </c>
       <c r="B60">
         <v>2017</v>
       </c>
       <c r="C60">
-        <v>3.906186022287209</v>
+        <v>3.990566499963733</v>
       </c>
       <c r="D60">
-        <v>9.486257403331251</v>
+        <v>8.05196304332387</v>
       </c>
       <c r="E60">
-        <v>24.79850661069711</v>
+        <v>23.6949837231817</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1689,19 +1689,19 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>57.8494929158643</v>
+        <v>56.02584693902538</v>
       </c>
       <c r="B61">
         <v>2018</v>
       </c>
       <c r="C61">
-        <v>3.906186022287209</v>
+        <v>3.990566499963733</v>
       </c>
       <c r="D61">
-        <v>50.19336831218136</v>
+        <v>48.20433659909646</v>
       </c>
       <c r="E61">
-        <v>65.50561751954723</v>
+        <v>63.84735727895429</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1711,19 +1711,19 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>63.16458482569494</v>
+        <v>61.45312845958033</v>
       </c>
       <c r="B62">
         <v>2019</v>
       </c>
       <c r="C62">
-        <v>3.906186022287209</v>
+        <v>3.990566499963733</v>
       </c>
       <c r="D62">
-        <v>55.508460222012</v>
+        <v>53.63161811965141</v>
       </c>
       <c r="E62">
-        <v>70.82070942937787</v>
+        <v>69.27463879950925</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1733,19 +1733,19 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>10.89808224184589</v>
+        <v>10.13378197383648</v>
       </c>
       <c r="B63">
         <v>2020</v>
       </c>
       <c r="C63">
-        <v>3.906186022287209</v>
+        <v>3.990566499963733</v>
       </c>
       <c r="D63">
-        <v>3.241957638162957</v>
+        <v>2.312271633907568</v>
       </c>
       <c r="E63">
-        <v>18.55420684552882</v>
+        <v>17.9552923137654</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1755,19 +1755,19 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>-5.986547390113189</v>
+        <v>-7.106519455005395</v>
       </c>
       <c r="B64">
         <v>2021</v>
       </c>
       <c r="C64">
-        <v>3.906186022287209</v>
+        <v>3.990566499963733</v>
       </c>
       <c r="D64">
-        <v>-13.64267199379612</v>
+        <v>-14.92802979493431</v>
       </c>
       <c r="E64">
-        <v>1.669577213569742</v>
+        <v>0.7149908849235214</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
